--- a/RMI/RMI/media/Reporte/REPORTE_MENSUAL_INSTRUCTOR_IN-ZULEMA_LEON_v2.xlsx
+++ b/RMI/RMI/media/Reporte/REPORTE_MENSUAL_INSTRUCTOR_IN-ZULEMA_LEON_v2.xlsx
@@ -1864,65 +1864,103 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="30" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="30" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="30" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="30" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="42" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1932,11 +1970,190 @@
     <xf numFmtId="0" fontId="42" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="30" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="30" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="30" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="30" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="29" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="39" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="29" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1945,14 +2162,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2005,173 +2215,76 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="30" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="30" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="30" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="30" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="30" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="29" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="39" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="29" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2181,119 +2294,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="30" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="30" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="30" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="30" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2720,7 +2720,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AJ1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="51" zoomScaleNormal="51" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2743,34 +2745,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:36" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="220" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="160" t="s">
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="161"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="161"/>
-      <c r="Q2" s="161"/>
-      <c r="R2" s="161"/>
-      <c r="S2" s="161"/>
-      <c r="T2" s="161"/>
-      <c r="U2" s="161"/>
-      <c r="V2" s="161"/>
-      <c r="W2" s="161"/>
-      <c r="X2" s="161"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="191"/>
+      <c r="P2" s="191"/>
+      <c r="Q2" s="191"/>
+      <c r="R2" s="191"/>
+      <c r="S2" s="191"/>
+      <c r="T2" s="191"/>
+      <c r="U2" s="191"/>
+      <c r="V2" s="191"/>
+      <c r="W2" s="191"/>
+      <c r="X2" s="191"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="1"/>
@@ -2785,38 +2787,38 @@
       <c r="AJ2" s="1"/>
     </row>
     <row r="3" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="133"/>
-      <c r="B3" s="187"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="189" t="s">
+      <c r="A3" s="221"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="139" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="190" t="s">
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
-      <c r="N3" s="190"/>
-      <c r="O3" s="190" t="s">
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="190"/>
-      <c r="Q3" s="190"/>
-      <c r="R3" s="190"/>
-      <c r="S3" s="190"/>
-      <c r="T3" s="190"/>
-      <c r="U3" s="190"/>
-      <c r="V3" s="190"/>
-      <c r="W3" s="190" t="s">
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="140"/>
+      <c r="T3" s="140"/>
+      <c r="U3" s="140"/>
+      <c r="V3" s="140"/>
+      <c r="W3" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="X3" s="190"/>
+      <c r="X3" s="140"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="2"/>
@@ -2831,36 +2833,36 @@
       <c r="AJ3" s="1"/>
     </row>
     <row r="4" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="133"/>
-      <c r="B4" s="187"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="191" t="s">
+      <c r="A4" s="221"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="191"/>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="191"/>
-      <c r="M4" s="191"/>
-      <c r="N4" s="191"/>
-      <c r="O4" s="192" t="s">
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="141"/>
+      <c r="M4" s="141"/>
+      <c r="N4" s="141"/>
+      <c r="O4" s="142" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="193"/>
-      <c r="Q4" s="193"/>
-      <c r="R4" s="193"/>
-      <c r="S4" s="193"/>
-      <c r="T4" s="193"/>
-      <c r="U4" s="193"/>
-      <c r="V4" s="194"/>
-      <c r="W4" s="119" t="s">
+      <c r="P4" s="143"/>
+      <c r="Q4" s="143"/>
+      <c r="R4" s="143"/>
+      <c r="S4" s="143"/>
+      <c r="T4" s="143"/>
+      <c r="U4" s="143"/>
+      <c r="V4" s="144"/>
+      <c r="W4" s="207" t="s">
         <v>55</v>
       </c>
-      <c r="X4" s="120"/>
+      <c r="X4" s="208"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="2"/>
@@ -2875,36 +2877,36 @@
       <c r="AJ4" s="1"/>
     </row>
     <row r="5" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="133"/>
-      <c r="B5" s="188" t="s">
+      <c r="A5" s="221"/>
+      <c r="B5" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="188"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="189"/>
-      <c r="G5" s="190" t="s">
+      <c r="C5" s="138"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="190"/>
-      <c r="I5" s="190"/>
-      <c r="J5" s="190"/>
-      <c r="K5" s="190"/>
-      <c r="L5" s="190"/>
-      <c r="M5" s="190"/>
-      <c r="N5" s="190"/>
-      <c r="O5" s="195" t="s">
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="P5" s="195"/>
-      <c r="Q5" s="195"/>
-      <c r="R5" s="195"/>
-      <c r="S5" s="195"/>
-      <c r="T5" s="195"/>
-      <c r="U5" s="195"/>
-      <c r="V5" s="195"/>
-      <c r="W5" s="121"/>
-      <c r="X5" s="122"/>
+      <c r="P5" s="145"/>
+      <c r="Q5" s="145"/>
+      <c r="R5" s="145"/>
+      <c r="S5" s="145"/>
+      <c r="T5" s="145"/>
+      <c r="U5" s="145"/>
+      <c r="V5" s="145"/>
+      <c r="W5" s="209"/>
+      <c r="X5" s="210"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="2"/>
@@ -2919,34 +2921,34 @@
       <c r="AJ5" s="1"/>
     </row>
     <row r="6" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="133"/>
-      <c r="B6" s="188"/>
-      <c r="C6" s="188"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
-      <c r="G6" s="191">
+      <c r="A6" s="221"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="141">
         <v>34317584</v>
       </c>
-      <c r="H6" s="191"/>
-      <c r="I6" s="191"/>
-      <c r="J6" s="191"/>
-      <c r="K6" s="191"/>
-      <c r="L6" s="191"/>
-      <c r="M6" s="191"/>
-      <c r="N6" s="191"/>
-      <c r="O6" s="191">
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="141"/>
+      <c r="O6" s="141">
         <v>3233674202</v>
       </c>
-      <c r="P6" s="191"/>
-      <c r="Q6" s="191"/>
-      <c r="R6" s="191"/>
-      <c r="S6" s="191"/>
-      <c r="T6" s="191"/>
-      <c r="U6" s="191"/>
-      <c r="V6" s="191"/>
-      <c r="W6" s="123"/>
-      <c r="X6" s="124"/>
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141"/>
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="141"/>
+      <c r="U6" s="141"/>
+      <c r="V6" s="141"/>
+      <c r="W6" s="211"/>
+      <c r="X6" s="212"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="2"/>
@@ -2961,30 +2963,30 @@
       <c r="AJ6" s="1"/>
     </row>
     <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="133"/>
-      <c r="B7" s="188"/>
-      <c r="C7" s="188"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
-      <c r="S7" s="126"/>
-      <c r="T7" s="126"/>
-      <c r="U7" s="126"/>
-      <c r="V7" s="126"/>
-      <c r="W7" s="126"/>
-      <c r="X7" s="127"/>
+      <c r="A7" s="221"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="213"/>
+      <c r="H7" s="214"/>
+      <c r="I7" s="214"/>
+      <c r="J7" s="214"/>
+      <c r="K7" s="214"/>
+      <c r="L7" s="214"/>
+      <c r="M7" s="214"/>
+      <c r="N7" s="214"/>
+      <c r="O7" s="214"/>
+      <c r="P7" s="214"/>
+      <c r="Q7" s="214"/>
+      <c r="R7" s="214"/>
+      <c r="S7" s="214"/>
+      <c r="T7" s="214"/>
+      <c r="U7" s="214"/>
+      <c r="V7" s="214"/>
+      <c r="W7" s="214"/>
+      <c r="X7" s="215"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
@@ -3013,15 +3015,15 @@
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="118"/>
-      <c r="R8" s="118"/>
-      <c r="S8" s="118"/>
-      <c r="T8" s="118"/>
-      <c r="U8" s="118"/>
-      <c r="V8" s="118"/>
-      <c r="W8" s="118"/>
+      <c r="O8" s="205"/>
+      <c r="P8" s="206"/>
+      <c r="Q8" s="206"/>
+      <c r="R8" s="206"/>
+      <c r="S8" s="206"/>
+      <c r="T8" s="206"/>
+      <c r="U8" s="206"/>
+      <c r="V8" s="206"/>
+      <c r="W8" s="206"/>
       <c r="X8" s="16"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
@@ -3037,35 +3039,35 @@
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="128" t="s">
+      <c r="A9" s="216" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="129"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="129"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="129"/>
-      <c r="M9" s="129"/>
-      <c r="N9" s="129"/>
-      <c r="O9" s="129"/>
-      <c r="P9" s="129"/>
-      <c r="Q9" s="129"/>
-      <c r="R9" s="129"/>
-      <c r="S9" s="129"/>
-      <c r="T9" s="129"/>
-      <c r="U9" s="129"/>
-      <c r="V9" s="129"/>
-      <c r="W9" s="129"/>
-      <c r="X9" s="129"/>
-      <c r="Y9" s="240"/>
-      <c r="Z9" s="241"/>
-      <c r="AA9" s="243"/>
+      <c r="B9" s="217"/>
+      <c r="C9" s="217"/>
+      <c r="D9" s="217"/>
+      <c r="E9" s="217"/>
+      <c r="F9" s="217"/>
+      <c r="G9" s="217"/>
+      <c r="H9" s="217"/>
+      <c r="I9" s="217"/>
+      <c r="J9" s="217"/>
+      <c r="K9" s="217"/>
+      <c r="L9" s="217"/>
+      <c r="M9" s="217"/>
+      <c r="N9" s="217"/>
+      <c r="O9" s="217"/>
+      <c r="P9" s="217"/>
+      <c r="Q9" s="217"/>
+      <c r="R9" s="217"/>
+      <c r="S9" s="217"/>
+      <c r="T9" s="217"/>
+      <c r="U9" s="217"/>
+      <c r="V9" s="217"/>
+      <c r="W9" s="217"/>
+      <c r="X9" s="217"/>
+      <c r="Y9" s="246"/>
+      <c r="Z9" s="247"/>
+      <c r="AA9" s="99"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
@@ -3077,61 +3079,61 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="1:36" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="130" t="s">
+      <c r="A10" s="218" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="134" t="s">
+      <c r="B10" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="134" t="s">
+      <c r="C10" s="159" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="138" t="s">
+      <c r="D10" s="227" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="134" t="s">
+      <c r="E10" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="134" t="s">
+      <c r="F10" s="159" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="134" t="s">
+      <c r="G10" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="98" t="s">
+      <c r="H10" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="160"/>
+      <c r="K10" s="160"/>
+      <c r="L10" s="160"/>
+      <c r="M10" s="160"/>
       <c r="N10" s="17"/>
-      <c r="O10" s="114" t="s">
+      <c r="O10" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="112" t="s">
+      <c r="P10" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="Q10" s="112" t="s">
+      <c r="Q10" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="R10" s="134" t="s">
+      <c r="R10" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="S10" s="73" t="s">
+      <c r="S10" s="194" t="s">
         <v>12</v>
       </c>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="244" t="s">
+      <c r="T10" s="160"/>
+      <c r="U10" s="160"/>
+      <c r="V10" s="160"/>
+      <c r="W10" s="160"/>
+      <c r="X10" s="160"/>
+      <c r="Y10" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="Z10" s="245"/>
-      <c r="AA10" s="246"/>
+      <c r="Z10" s="112"/>
+      <c r="AA10" s="113"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
@@ -3143,13 +3145,13 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="131"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
+      <c r="A11" s="219"/>
+      <c r="B11" s="197"/>
+      <c r="C11" s="197"/>
+      <c r="D11" s="228"/>
+      <c r="E11" s="197"/>
+      <c r="F11" s="197"/>
+      <c r="G11" s="197"/>
       <c r="H11" s="35" t="s">
         <v>13</v>
       </c>
@@ -3171,19 +3173,19 @@
       <c r="N11" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="115"/>
-      <c r="P11" s="116"/>
-      <c r="Q11" s="113"/>
-      <c r="R11" s="115"/>
-      <c r="S11" s="169"/>
-      <c r="T11" s="75"/>
-      <c r="U11" s="75"/>
-      <c r="V11" s="75"/>
-      <c r="W11" s="75"/>
-      <c r="X11" s="75"/>
-      <c r="Y11" s="247"/>
-      <c r="Z11" s="248"/>
-      <c r="AA11" s="249"/>
+      <c r="O11" s="197"/>
+      <c r="P11" s="204"/>
+      <c r="Q11" s="203"/>
+      <c r="R11" s="197"/>
+      <c r="S11" s="195"/>
+      <c r="T11" s="196"/>
+      <c r="U11" s="196"/>
+      <c r="V11" s="196"/>
+      <c r="W11" s="196"/>
+      <c r="X11" s="196"/>
+      <c r="Y11" s="114"/>
+      <c r="Z11" s="115"/>
+      <c r="AA11" s="116"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
@@ -3231,9 +3233,9 @@
       <c r="X12" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="Y12" s="227"/>
-      <c r="Z12" s="228"/>
-      <c r="AA12" s="242"/>
+      <c r="Y12" s="85"/>
+      <c r="Z12" s="86"/>
+      <c r="AA12" s="98"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
@@ -3245,44 +3247,44 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="99">
+      <c r="A13" s="224">
         <v>1025695</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="97" t="s">
+      <c r="C13" s="117" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="97">
+      <c r="D13" s="117">
         <v>60</v>
       </c>
-      <c r="E13" s="102" t="s">
+      <c r="E13" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="102" t="s">
+      <c r="F13" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="91">
+      <c r="G13" s="229">
         <v>4</v>
       </c>
-      <c r="H13" s="90"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90" t="s">
+      <c r="H13" s="232"/>
+      <c r="I13" s="222"/>
+      <c r="J13" s="233"/>
+      <c r="K13" s="235"/>
+      <c r="L13" s="232"/>
+      <c r="M13" s="232" t="s">
         <v>81</v>
       </c>
-      <c r="N13" s="90"/>
-      <c r="O13" s="91" t="s">
+      <c r="N13" s="232"/>
+      <c r="O13" s="229" t="s">
         <v>83</v>
       </c>
-      <c r="P13" s="136"/>
-      <c r="Q13" s="136">
-        <v>24</v>
-      </c>
-      <c r="R13" s="136"/>
+      <c r="P13" s="164"/>
+      <c r="Q13" s="164">
+        <v>12</v>
+      </c>
+      <c r="R13" s="164"/>
       <c r="S13" s="43"/>
       <c r="T13" s="44"/>
       <c r="U13" s="46">
@@ -3294,16 +3296,16 @@
       <c r="W13" s="47">
         <v>3</v>
       </c>
-      <c r="X13" s="255">
+      <c r="X13" s="105">
         <v>4</v>
       </c>
-      <c r="Y13" s="260" t="s">
+      <c r="Y13" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="Z13" s="260" t="s">
+      <c r="Z13" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="AA13" s="215"/>
+      <c r="AA13" s="79"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
@@ -3315,24 +3317,24 @@
       <c r="AJ13" s="3"/>
     </row>
     <row r="14" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="100"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="137"/>
-      <c r="Q14" s="137"/>
-      <c r="R14" s="137"/>
+      <c r="A14" s="225"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="223"/>
+      <c r="J14" s="233"/>
+      <c r="K14" s="236"/>
+      <c r="L14" s="118"/>
+      <c r="M14" s="118"/>
+      <c r="N14" s="118"/>
+      <c r="O14" s="118"/>
+      <c r="P14" s="165"/>
+      <c r="Q14" s="165"/>
+      <c r="R14" s="165"/>
       <c r="S14" s="41">
         <v>6</v>
       </c>
@@ -3348,16 +3350,16 @@
       <c r="W14" s="48">
         <v>10</v>
       </c>
-      <c r="X14" s="256">
+      <c r="X14" s="106">
         <v>11</v>
       </c>
-      <c r="Y14" s="260" t="s">
+      <c r="Y14" s="110" t="s">
         <v>88</v>
       </c>
-      <c r="Z14" s="260" t="s">
+      <c r="Z14" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="AA14" s="215"/>
+      <c r="AA14" s="79"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
@@ -3369,24 +3371,24 @@
       <c r="AJ14" s="3"/>
     </row>
     <row r="15" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="100"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="80"/>
-      <c r="P15" s="137"/>
-      <c r="Q15" s="137"/>
-      <c r="R15" s="137"/>
+      <c r="A15" s="225"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="223"/>
+      <c r="J15" s="233"/>
+      <c r="K15" s="236"/>
+      <c r="L15" s="118"/>
+      <c r="M15" s="118"/>
+      <c r="N15" s="118"/>
+      <c r="O15" s="118"/>
+      <c r="P15" s="165"/>
+      <c r="Q15" s="165"/>
+      <c r="R15" s="165"/>
       <c r="S15" s="41">
         <v>13</v>
       </c>
@@ -3402,16 +3404,16 @@
       <c r="W15" s="48">
         <v>17</v>
       </c>
-      <c r="X15" s="256">
+      <c r="X15" s="106">
         <v>18</v>
       </c>
-      <c r="Y15" s="260" t="s">
+      <c r="Y15" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="Z15" s="260" t="s">
+      <c r="Z15" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="AA15" s="215"/>
+      <c r="AA15" s="79"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
@@ -3423,24 +3425,24 @@
       <c r="AJ15" s="3"/>
     </row>
     <row r="16" spans="1:36" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="100"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="137"/>
-      <c r="Q16" s="137"/>
-      <c r="R16" s="137"/>
+      <c r="A16" s="225"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="223"/>
+      <c r="J16" s="233"/>
+      <c r="K16" s="236"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="118"/>
+      <c r="O16" s="118"/>
+      <c r="P16" s="165"/>
+      <c r="Q16" s="165"/>
+      <c r="R16" s="165"/>
       <c r="S16" s="27">
         <v>20</v>
       </c>
@@ -3456,16 +3458,16 @@
       <c r="W16" s="49">
         <v>24</v>
       </c>
-      <c r="X16" s="257">
+      <c r="X16" s="107">
         <v>25</v>
       </c>
-      <c r="Y16" s="260" t="s">
+      <c r="Y16" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="Z16" s="260" t="s">
+      <c r="Z16" s="110" t="s">
         <v>93</v>
       </c>
-      <c r="AA16" s="215"/>
+      <c r="AA16" s="79"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
@@ -3477,24 +3479,24 @@
       <c r="AJ16" s="3"/>
     </row>
     <row r="17" spans="1:36" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="101"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="137"/>
-      <c r="Q17" s="137"/>
-      <c r="R17" s="137"/>
+      <c r="A17" s="226"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="223"/>
+      <c r="J17" s="234"/>
+      <c r="K17" s="236"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="165"/>
+      <c r="Q17" s="165"/>
+      <c r="R17" s="165"/>
       <c r="S17" s="50">
         <v>27</v>
       </c>
@@ -3505,9 +3507,9 @@
       <c r="V17" s="51"/>
       <c r="W17" s="50"/>
       <c r="X17" s="62"/>
-      <c r="Y17" s="229"/>
-      <c r="Z17" s="232"/>
-      <c r="AA17" s="215"/>
+      <c r="Y17" s="87"/>
+      <c r="Z17" s="90"/>
+      <c r="AA17" s="79"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
@@ -3519,45 +3521,45 @@
       <c r="AJ17" s="3"/>
     </row>
     <row r="18" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="99">
+      <c r="A18" s="224">
         <v>1025695</v>
       </c>
-      <c r="B18" s="97" t="s">
+      <c r="B18" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="97" t="s">
+      <c r="C18" s="117" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="97">
+      <c r="D18" s="117">
         <v>60</v>
       </c>
-      <c r="E18" s="102" t="s">
+      <c r="E18" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="102" t="s">
+      <c r="F18" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="91">
+      <c r="G18" s="229">
         <v>3</v>
       </c>
-      <c r="H18" s="90"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="135" t="s">
+      <c r="H18" s="232"/>
+      <c r="I18" s="222"/>
+      <c r="J18" s="233"/>
+      <c r="K18" s="235"/>
+      <c r="L18" s="232"/>
+      <c r="M18" s="222" t="s">
         <v>82</v>
       </c>
-      <c r="N18" s="206"/>
-      <c r="O18" s="207" t="s">
+      <c r="N18" s="237"/>
+      <c r="O18" s="240" t="s">
         <v>83</v>
       </c>
-      <c r="P18" s="201"/>
-      <c r="Q18" s="204">
-        <v>24</v>
-      </c>
-      <c r="R18" s="201"/>
-      <c r="S18" s="198"/>
+      <c r="P18" s="256"/>
+      <c r="Q18" s="259">
+        <v>12</v>
+      </c>
+      <c r="R18" s="256"/>
+      <c r="S18" s="73"/>
       <c r="T18" s="44"/>
       <c r="U18" s="46">
         <v>1</v>
@@ -3568,16 +3570,16 @@
       <c r="W18" s="47">
         <v>3</v>
       </c>
-      <c r="X18" s="255">
+      <c r="X18" s="105">
         <v>4</v>
       </c>
-      <c r="Y18" s="260" t="s">
+      <c r="Y18" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="Z18" s="260" t="s">
+      <c r="Z18" s="110" t="s">
         <v>95</v>
       </c>
-      <c r="AA18" s="215"/>
+      <c r="AA18" s="79"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
@@ -3589,25 +3591,25 @@
       <c r="AJ18" s="3"/>
     </row>
     <row r="19" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="100"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="106"/>
-      <c r="N19" s="208"/>
-      <c r="O19" s="209"/>
-      <c r="P19" s="202"/>
-      <c r="Q19" s="205"/>
-      <c r="R19" s="202"/>
-      <c r="S19" s="199">
+      <c r="A19" s="225"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="223"/>
+      <c r="J19" s="233"/>
+      <c r="K19" s="236"/>
+      <c r="L19" s="118"/>
+      <c r="M19" s="223"/>
+      <c r="N19" s="238"/>
+      <c r="O19" s="241"/>
+      <c r="P19" s="257"/>
+      <c r="Q19" s="260"/>
+      <c r="R19" s="257"/>
+      <c r="S19" s="74">
         <v>6</v>
       </c>
       <c r="T19" s="42">
@@ -3622,16 +3624,16 @@
       <c r="W19" s="48">
         <v>10</v>
       </c>
-      <c r="X19" s="256">
+      <c r="X19" s="106">
         <v>11</v>
       </c>
-      <c r="Y19" s="260" t="s">
+      <c r="Y19" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="Z19" s="260" t="s">
+      <c r="Z19" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="AA19" s="215"/>
+      <c r="AA19" s="79"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
@@ -3643,25 +3645,25 @@
       <c r="AJ19" s="3"/>
     </row>
     <row r="20" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="100"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="208"/>
-      <c r="O20" s="209"/>
-      <c r="P20" s="202"/>
-      <c r="Q20" s="205"/>
-      <c r="R20" s="202"/>
-      <c r="S20" s="199">
+      <c r="A20" s="225"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="223"/>
+      <c r="J20" s="233"/>
+      <c r="K20" s="236"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="223"/>
+      <c r="N20" s="238"/>
+      <c r="O20" s="241"/>
+      <c r="P20" s="257"/>
+      <c r="Q20" s="260"/>
+      <c r="R20" s="257"/>
+      <c r="S20" s="74">
         <v>13</v>
       </c>
       <c r="T20" s="42">
@@ -3676,16 +3678,16 @@
       <c r="W20" s="48">
         <v>17</v>
       </c>
-      <c r="X20" s="256">
+      <c r="X20" s="106">
         <v>18</v>
       </c>
-      <c r="Y20" s="260" t="s">
+      <c r="Y20" s="110" t="s">
         <v>98</v>
       </c>
-      <c r="Z20" s="260" t="s">
+      <c r="Z20" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="AA20" s="215"/>
+      <c r="AA20" s="79"/>
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
@@ -3697,25 +3699,25 @@
       <c r="AJ20" s="3"/>
     </row>
     <row r="21" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="100"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="208"/>
-      <c r="O21" s="209"/>
-      <c r="P21" s="202"/>
-      <c r="Q21" s="205"/>
-      <c r="R21" s="202"/>
-      <c r="S21" s="200">
+      <c r="A21" s="225"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="223"/>
+      <c r="J21" s="233"/>
+      <c r="K21" s="236"/>
+      <c r="L21" s="118"/>
+      <c r="M21" s="223"/>
+      <c r="N21" s="238"/>
+      <c r="O21" s="241"/>
+      <c r="P21" s="257"/>
+      <c r="Q21" s="260"/>
+      <c r="R21" s="257"/>
+      <c r="S21" s="75">
         <v>20</v>
       </c>
       <c r="T21" s="51">
@@ -3727,15 +3729,15 @@
       <c r="V21" s="51">
         <v>23</v>
       </c>
-      <c r="W21" s="258">
+      <c r="W21" s="108">
         <v>24</v>
       </c>
-      <c r="X21" s="259">
+      <c r="X21" s="109">
         <v>25</v>
       </c>
-      <c r="Y21" s="229"/>
-      <c r="Z21" s="232"/>
-      <c r="AA21" s="215"/>
+      <c r="Y21" s="87"/>
+      <c r="Z21" s="90"/>
+      <c r="AA21" s="79"/>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
@@ -3747,37 +3749,37 @@
       <c r="AJ21" s="3"/>
     </row>
     <row r="22" spans="1:36" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="101"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="210"/>
-      <c r="O22" s="211"/>
-      <c r="P22" s="203"/>
-      <c r="Q22" s="205"/>
-      <c r="R22" s="203"/>
-      <c r="S22" s="214">
+      <c r="A22" s="226"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="223"/>
+      <c r="J22" s="234"/>
+      <c r="K22" s="236"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="223"/>
+      <c r="N22" s="239"/>
+      <c r="O22" s="242"/>
+      <c r="P22" s="258"/>
+      <c r="Q22" s="260"/>
+      <c r="R22" s="258"/>
+      <c r="S22" s="78">
         <v>27</v>
       </c>
-      <c r="T22" s="214">
+      <c r="T22" s="78">
         <v>28</v>
       </c>
-      <c r="U22" s="214"/>
-      <c r="V22" s="214"/>
-      <c r="W22" s="214"/>
-      <c r="X22" s="214"/>
-      <c r="Y22" s="229"/>
-      <c r="Z22" s="232"/>
-      <c r="AA22" s="215"/>
+      <c r="U22" s="78"/>
+      <c r="V22" s="78"/>
+      <c r="W22" s="78"/>
+      <c r="X22" s="78"/>
+      <c r="Y22" s="87"/>
+      <c r="Z22" s="90"/>
+      <c r="AA22" s="79"/>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
@@ -3788,95 +3790,95 @@
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
     </row>
-    <row r="23" spans="1:36" s="217" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="99">
+    <row r="23" spans="1:36" s="81" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="224">
         <v>1196037</v>
       </c>
-      <c r="B23" s="97" t="s">
+      <c r="B23" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="97" t="s">
+      <c r="C23" s="117" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="97">
+      <c r="D23" s="117">
         <v>60</v>
       </c>
-      <c r="E23" s="102" t="s">
+      <c r="E23" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="102" t="s">
+      <c r="F23" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="224">
+      <c r="G23" s="123">
         <v>12</v>
       </c>
-      <c r="H23" s="93"/>
-      <c r="I23" s="221" t="s">
+      <c r="H23" s="126"/>
+      <c r="I23" s="128" t="s">
         <v>81</v>
       </c>
-      <c r="J23" s="93"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="79" t="s">
+      <c r="J23" s="126"/>
+      <c r="K23" s="126"/>
+      <c r="L23" s="126"/>
+      <c r="M23" s="126"/>
+      <c r="N23" s="243"/>
+      <c r="O23" s="245" t="s">
         <v>84</v>
       </c>
-      <c r="P23" s="82"/>
-      <c r="Q23" s="85">
-        <v>24</v>
-      </c>
-      <c r="R23" s="87"/>
-      <c r="S23" s="212"/>
-      <c r="T23" s="212"/>
-      <c r="U23" s="213">
+      <c r="P23" s="248"/>
+      <c r="Q23" s="251">
+        <v>12</v>
+      </c>
+      <c r="R23" s="253"/>
+      <c r="S23" s="76"/>
+      <c r="T23" s="76"/>
+      <c r="U23" s="77">
         <v>1</v>
       </c>
-      <c r="V23" s="212">
+      <c r="V23" s="76">
         <v>2</v>
       </c>
-      <c r="W23" s="212">
+      <c r="W23" s="76">
         <v>3</v>
       </c>
       <c r="X23" s="64">
         <v>4</v>
       </c>
-      <c r="Y23" s="229"/>
-      <c r="Z23" s="232"/>
-      <c r="AA23" s="215"/>
-      <c r="AB23" s="216"/>
-      <c r="AC23" s="216"/>
-      <c r="AD23" s="216"/>
-      <c r="AE23" s="216"/>
-      <c r="AF23" s="216"/>
-      <c r="AG23" s="216"/>
-      <c r="AH23" s="216"/>
-      <c r="AI23" s="216"/>
-      <c r="AJ23" s="216"/>
+      <c r="Y23" s="87"/>
+      <c r="Z23" s="90"/>
+      <c r="AA23" s="79"/>
+      <c r="AB23" s="80"/>
+      <c r="AC23" s="80"/>
+      <c r="AD23" s="80"/>
+      <c r="AE23" s="80"/>
+      <c r="AF23" s="80"/>
+      <c r="AG23" s="80"/>
+      <c r="AH23" s="80"/>
+      <c r="AI23" s="80"/>
+      <c r="AJ23" s="80"/>
     </row>
     <row r="24" spans="1:36" s="60" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="100"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="225"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="222"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="83"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="88"/>
+      <c r="A24" s="225"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="127"/>
+      <c r="I24" s="129"/>
+      <c r="J24" s="127"/>
+      <c r="K24" s="127"/>
+      <c r="L24" s="127"/>
+      <c r="M24" s="127"/>
+      <c r="N24" s="236"/>
+      <c r="O24" s="118"/>
+      <c r="P24" s="249"/>
+      <c r="Q24" s="252"/>
+      <c r="R24" s="254"/>
       <c r="S24" s="52">
         <v>6</v>
       </c>
-      <c r="T24" s="251">
+      <c r="T24" s="101">
         <v>7</v>
       </c>
       <c r="U24" s="52">
@@ -3891,48 +3893,48 @@
       <c r="X24" s="64">
         <v>11</v>
       </c>
-      <c r="Y24" s="230" t="s">
+      <c r="Y24" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="Z24" s="230" t="s">
+      <c r="Z24" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="AA24" s="230" t="s">
+      <c r="AA24" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="AB24" s="218"/>
-      <c r="AC24" s="218"/>
-      <c r="AD24" s="218"/>
-      <c r="AE24" s="218"/>
-      <c r="AF24" s="218"/>
-      <c r="AG24" s="218"/>
-      <c r="AH24" s="218"/>
-      <c r="AI24" s="218"/>
-      <c r="AJ24" s="218"/>
+      <c r="AB24" s="82"/>
+      <c r="AC24" s="82"/>
+      <c r="AD24" s="82"/>
+      <c r="AE24" s="82"/>
+      <c r="AF24" s="82"/>
+      <c r="AG24" s="82"/>
+      <c r="AH24" s="82"/>
+      <c r="AI24" s="82"/>
+      <c r="AJ24" s="82"/>
     </row>
     <row r="25" spans="1:36" s="60" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="100"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="225"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="222"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="94"/>
-      <c r="M25" s="94"/>
-      <c r="N25" s="77"/>
-      <c r="O25" s="80"/>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="88"/>
+      <c r="A25" s="225"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="124"/>
+      <c r="H25" s="127"/>
+      <c r="I25" s="129"/>
+      <c r="J25" s="127"/>
+      <c r="K25" s="127"/>
+      <c r="L25" s="127"/>
+      <c r="M25" s="127"/>
+      <c r="N25" s="236"/>
+      <c r="O25" s="118"/>
+      <c r="P25" s="249"/>
+      <c r="Q25" s="252"/>
+      <c r="R25" s="254"/>
       <c r="S25" s="41">
         <v>13</v>
       </c>
-      <c r="T25" s="252">
+      <c r="T25" s="102">
         <v>14</v>
       </c>
       <c r="U25" s="41">
@@ -3947,48 +3949,48 @@
       <c r="X25" s="63">
         <v>18</v>
       </c>
-      <c r="Y25" s="230" t="s">
+      <c r="Y25" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="Z25" s="230" t="s">
+      <c r="Z25" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="AA25" s="235" t="s">
+      <c r="AA25" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="AB25" s="218"/>
-      <c r="AC25" s="218"/>
-      <c r="AD25" s="218"/>
-      <c r="AE25" s="218"/>
-      <c r="AF25" s="218"/>
-      <c r="AG25" s="218"/>
-      <c r="AH25" s="218"/>
-      <c r="AI25" s="218"/>
-      <c r="AJ25" s="218"/>
+      <c r="AB25" s="82"/>
+      <c r="AC25" s="82"/>
+      <c r="AD25" s="82"/>
+      <c r="AE25" s="82"/>
+      <c r="AF25" s="82"/>
+      <c r="AG25" s="82"/>
+      <c r="AH25" s="82"/>
+      <c r="AI25" s="82"/>
+      <c r="AJ25" s="82"/>
     </row>
     <row r="26" spans="1:36" s="60" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="100"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="225"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="222"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="94"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="80"/>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="88"/>
+      <c r="A26" s="225"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="127"/>
+      <c r="K26" s="127"/>
+      <c r="L26" s="127"/>
+      <c r="M26" s="127"/>
+      <c r="N26" s="236"/>
+      <c r="O26" s="118"/>
+      <c r="P26" s="249"/>
+      <c r="Q26" s="252"/>
+      <c r="R26" s="254"/>
       <c r="S26" s="27">
         <v>20</v>
       </c>
-      <c r="T26" s="253">
+      <c r="T26" s="103">
         <v>21</v>
       </c>
       <c r="U26" s="27">
@@ -4003,133 +4005,133 @@
       <c r="X26" s="63">
         <v>25</v>
       </c>
-      <c r="Y26" s="232" t="s">
+      <c r="Y26" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="Z26" s="230" t="s">
+      <c r="Z26" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="AA26" s="230" t="s">
+      <c r="AA26" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="AB26" s="218"/>
-      <c r="AC26" s="218"/>
-      <c r="AD26" s="218"/>
-      <c r="AE26" s="218"/>
-      <c r="AF26" s="218"/>
-      <c r="AG26" s="218"/>
-      <c r="AH26" s="218"/>
-      <c r="AI26" s="218"/>
-      <c r="AJ26" s="218"/>
-    </row>
-    <row r="27" spans="1:36" s="220" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="101"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="226"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="223"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94"/>
-      <c r="M27" s="94"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="81"/>
-      <c r="P27" s="84"/>
-      <c r="Q27" s="86"/>
-      <c r="R27" s="89"/>
+      <c r="AB26" s="82"/>
+      <c r="AC26" s="82"/>
+      <c r="AD26" s="82"/>
+      <c r="AE26" s="82"/>
+      <c r="AF26" s="82"/>
+      <c r="AG26" s="82"/>
+      <c r="AH26" s="82"/>
+      <c r="AI26" s="82"/>
+      <c r="AJ26" s="82"/>
+    </row>
+    <row r="27" spans="1:36" s="84" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="226"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="127"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="127"/>
+      <c r="K27" s="127"/>
+      <c r="L27" s="127"/>
+      <c r="M27" s="127"/>
+      <c r="N27" s="244"/>
+      <c r="O27" s="119"/>
+      <c r="P27" s="250"/>
+      <c r="Q27" s="252"/>
+      <c r="R27" s="255"/>
       <c r="S27" s="29">
         <v>27</v>
       </c>
-      <c r="T27" s="254">
+      <c r="T27" s="104">
         <v>28</v>
       </c>
       <c r="U27" s="29"/>
       <c r="V27" s="30"/>
       <c r="W27" s="29"/>
       <c r="X27" s="65"/>
-      <c r="Y27" s="230" t="s">
+      <c r="Y27" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="Z27" s="230" t="s">
+      <c r="Z27" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="AA27" s="230" t="s">
+      <c r="AA27" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="AB27" s="219"/>
-      <c r="AC27" s="219"/>
-      <c r="AD27" s="219"/>
-      <c r="AE27" s="219"/>
-      <c r="AF27" s="219"/>
-      <c r="AG27" s="219"/>
-      <c r="AH27" s="219"/>
-      <c r="AI27" s="219"/>
-      <c r="AJ27" s="219"/>
+      <c r="AB27" s="83"/>
+      <c r="AC27" s="83"/>
+      <c r="AD27" s="83"/>
+      <c r="AE27" s="83"/>
+      <c r="AF27" s="83"/>
+      <c r="AG27" s="83"/>
+      <c r="AH27" s="83"/>
+      <c r="AI27" s="83"/>
+      <c r="AJ27" s="83"/>
     </row>
     <row r="28" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="99">
+      <c r="A28" s="224">
         <v>1196037</v>
       </c>
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="97" t="s">
+      <c r="C28" s="117" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="97">
+      <c r="D28" s="117">
         <v>60</v>
       </c>
-      <c r="E28" s="102" t="s">
+      <c r="E28" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="102" t="s">
+      <c r="F28" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="105">
+      <c r="G28" s="230">
         <v>11</v>
       </c>
-      <c r="H28" s="93"/>
-      <c r="I28" s="221" t="s">
+      <c r="H28" s="126"/>
+      <c r="I28" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="J28" s="93"/>
-      <c r="K28" s="93"/>
-      <c r="L28" s="93"/>
-      <c r="M28" s="93"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="79" t="s">
+      <c r="J28" s="126"/>
+      <c r="K28" s="126"/>
+      <c r="L28" s="126"/>
+      <c r="M28" s="126"/>
+      <c r="N28" s="243"/>
+      <c r="O28" s="245" t="s">
         <v>84</v>
       </c>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="85">
-        <v>24</v>
-      </c>
-      <c r="R28" s="87"/>
-      <c r="S28" s="212"/>
-      <c r="T28" s="212"/>
-      <c r="U28" s="213">
+      <c r="P28" s="248"/>
+      <c r="Q28" s="251">
+        <v>12</v>
+      </c>
+      <c r="R28" s="253"/>
+      <c r="S28" s="76"/>
+      <c r="T28" s="76"/>
+      <c r="U28" s="77">
         <v>1</v>
       </c>
-      <c r="V28" s="212">
+      <c r="V28" s="76">
         <v>2</v>
       </c>
-      <c r="W28" s="212">
+      <c r="W28" s="76">
         <v>3</v>
       </c>
       <c r="X28" s="64">
         <v>4</v>
       </c>
-      <c r="Y28" s="231" t="s">
+      <c r="Y28" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="Z28" s="230" t="s">
+      <c r="Z28" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="AA28" s="230" t="s">
+      <c r="AA28" s="88" t="s">
         <v>75</v>
       </c>
       <c r="AB28" s="3"/>
@@ -4143,28 +4145,28 @@
       <c r="AJ28" s="3"/>
     </row>
     <row r="29" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="100"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="222"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="94"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="80"/>
-      <c r="P29" s="83"/>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="88"/>
+      <c r="A29" s="225"/>
+      <c r="B29" s="118"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="223"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="129"/>
+      <c r="J29" s="127"/>
+      <c r="K29" s="127"/>
+      <c r="L29" s="127"/>
+      <c r="M29" s="127"/>
+      <c r="N29" s="236"/>
+      <c r="O29" s="118"/>
+      <c r="P29" s="249"/>
+      <c r="Q29" s="252"/>
+      <c r="R29" s="254"/>
       <c r="S29" s="52">
         <v>6</v>
       </c>
-      <c r="T29" s="251">
+      <c r="T29" s="101">
         <v>7</v>
       </c>
       <c r="U29" s="52">
@@ -4179,13 +4181,13 @@
       <c r="X29" s="64">
         <v>11</v>
       </c>
-      <c r="Y29" s="230" t="s">
+      <c r="Y29" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="Z29" s="230" t="s">
+      <c r="Z29" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="AA29" s="230" t="s">
+      <c r="AA29" s="88" t="s">
         <v>77</v>
       </c>
       <c r="AB29" s="3"/>
@@ -4199,28 +4201,28 @@
       <c r="AJ29" s="3"/>
     </row>
     <row r="30" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="100"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="222"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="94"/>
-      <c r="M30" s="94"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="80"/>
-      <c r="P30" s="83"/>
-      <c r="Q30" s="86"/>
-      <c r="R30" s="88"/>
+      <c r="A30" s="225"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="223"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="129"/>
+      <c r="J30" s="127"/>
+      <c r="K30" s="127"/>
+      <c r="L30" s="127"/>
+      <c r="M30" s="127"/>
+      <c r="N30" s="236"/>
+      <c r="O30" s="118"/>
+      <c r="P30" s="249"/>
+      <c r="Q30" s="252"/>
+      <c r="R30" s="254"/>
       <c r="S30" s="41">
         <v>13</v>
       </c>
-      <c r="T30" s="252">
+      <c r="T30" s="102">
         <v>14</v>
       </c>
       <c r="U30" s="41">
@@ -4235,13 +4237,13 @@
       <c r="X30" s="63">
         <v>18</v>
       </c>
-      <c r="Y30" s="230" t="s">
+      <c r="Y30" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Z30" s="230" t="s">
+      <c r="Z30" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="AA30" s="230" t="s">
+      <c r="AA30" s="88" t="s">
         <v>79</v>
       </c>
       <c r="AB30" s="3"/>
@@ -4255,28 +4257,28 @@
       <c r="AJ30" s="3"/>
     </row>
     <row r="31" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="100"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="222"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="94"/>
-      <c r="N31" s="77"/>
-      <c r="O31" s="80"/>
-      <c r="P31" s="83"/>
-      <c r="Q31" s="86"/>
-      <c r="R31" s="88"/>
+      <c r="A31" s="225"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="121"/>
+      <c r="F31" s="121"/>
+      <c r="G31" s="223"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="127"/>
+      <c r="K31" s="127"/>
+      <c r="L31" s="127"/>
+      <c r="M31" s="127"/>
+      <c r="N31" s="236"/>
+      <c r="O31" s="118"/>
+      <c r="P31" s="249"/>
+      <c r="Q31" s="252"/>
+      <c r="R31" s="254"/>
       <c r="S31" s="27">
         <v>20</v>
       </c>
-      <c r="T31" s="253">
+      <c r="T31" s="103">
         <v>21</v>
       </c>
       <c r="U31" s="27">
@@ -4291,13 +4293,13 @@
       <c r="X31" s="63">
         <v>25</v>
       </c>
-      <c r="Y31" s="230" t="s">
+      <c r="Y31" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="Z31" s="235" t="s">
+      <c r="Z31" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="AA31" s="250"/>
+      <c r="AA31" s="100"/>
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
@@ -4309,28 +4311,28 @@
       <c r="AJ31" s="3"/>
     </row>
     <row r="32" spans="1:36" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="101"/>
-      <c r="B32" s="81"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="223"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="94"/>
-      <c r="M32" s="94"/>
-      <c r="N32" s="78"/>
-      <c r="O32" s="81"/>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="86"/>
-      <c r="R32" s="89"/>
+      <c r="A32" s="226"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="231"/>
+      <c r="H32" s="127"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="127"/>
+      <c r="K32" s="127"/>
+      <c r="L32" s="127"/>
+      <c r="M32" s="127"/>
+      <c r="N32" s="244"/>
+      <c r="O32" s="119"/>
+      <c r="P32" s="250"/>
+      <c r="Q32" s="252"/>
+      <c r="R32" s="255"/>
       <c r="S32" s="29">
         <v>27</v>
       </c>
-      <c r="T32" s="254">
+      <c r="T32" s="104">
         <v>28</v>
       </c>
       <c r="U32" s="29"/>
@@ -4338,8 +4340,8 @@
       <c r="W32" s="29"/>
       <c r="X32" s="65"/>
       <c r="Y32" s="72"/>
-      <c r="Z32" s="230"/>
-      <c r="AA32" s="215"/>
+      <c r="Z32" s="88"/>
+      <c r="AA32" s="79"/>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
@@ -4358,27 +4360,27 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="110"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="109"/>
-      <c r="K33" s="109"/>
-      <c r="L33" s="109"/>
-      <c r="M33" s="109"/>
-      <c r="N33" s="109"/>
-      <c r="O33" s="111"/>
+      <c r="H33" s="201"/>
+      <c r="I33" s="200"/>
+      <c r="J33" s="200"/>
+      <c r="K33" s="200"/>
+      <c r="L33" s="200"/>
+      <c r="M33" s="200"/>
+      <c r="N33" s="200"/>
+      <c r="O33" s="202"/>
       <c r="P33" s="26"/>
       <c r="Q33" s="55">
         <f>SUM(Q13:Q32)</f>
-        <v>96</v>
-      </c>
-      <c r="R33" s="108"/>
-      <c r="S33" s="109"/>
-      <c r="T33" s="109"/>
-      <c r="U33" s="109"/>
-      <c r="V33" s="109"/>
-      <c r="W33" s="109"/>
+        <v>48</v>
+      </c>
+      <c r="R33" s="199"/>
+      <c r="S33" s="200"/>
+      <c r="T33" s="200"/>
+      <c r="U33" s="200"/>
+      <c r="V33" s="200"/>
+      <c r="W33" s="200"/>
       <c r="X33" s="56"/>
-      <c r="Z33" s="233"/>
+      <c r="Z33" s="91"/>
       <c r="AA33" s="5"/>
       <c r="AB33" s="6"/>
       <c r="AC33" s="6"/>
@@ -4391,33 +4393,33 @@
       <c r="AJ33" s="6"/>
     </row>
     <row r="34" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="184" t="s">
+      <c r="A34" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="185"/>
-      <c r="C34" s="185"/>
-      <c r="D34" s="185"/>
-      <c r="E34" s="185"/>
-      <c r="F34" s="185"/>
-      <c r="G34" s="185"/>
-      <c r="H34" s="185"/>
-      <c r="I34" s="185"/>
-      <c r="J34" s="185"/>
-      <c r="K34" s="185"/>
-      <c r="L34" s="185"/>
-      <c r="M34" s="185"/>
-      <c r="N34" s="185"/>
-      <c r="O34" s="185"/>
-      <c r="P34" s="185"/>
-      <c r="Q34" s="186"/>
-      <c r="R34" s="185"/>
-      <c r="S34" s="185"/>
-      <c r="T34" s="185"/>
-      <c r="U34" s="185"/>
-      <c r="V34" s="185"/>
-      <c r="W34" s="185"/>
+      <c r="B34" s="132"/>
+      <c r="C34" s="132"/>
+      <c r="D34" s="132"/>
+      <c r="E34" s="132"/>
+      <c r="F34" s="132"/>
+      <c r="G34" s="132"/>
+      <c r="H34" s="132"/>
+      <c r="I34" s="132"/>
+      <c r="J34" s="132"/>
+      <c r="K34" s="132"/>
+      <c r="L34" s="132"/>
+      <c r="M34" s="132"/>
+      <c r="N34" s="132"/>
+      <c r="O34" s="132"/>
+      <c r="P34" s="132"/>
+      <c r="Q34" s="133"/>
+      <c r="R34" s="132"/>
+      <c r="S34" s="132"/>
+      <c r="T34" s="132"/>
+      <c r="U34" s="132"/>
+      <c r="V34" s="132"/>
+      <c r="W34" s="132"/>
       <c r="X34" s="66"/>
-      <c r="Z34" s="230"/>
+      <c r="Z34" s="88"/>
       <c r="AA34" s="5"/>
       <c r="AB34" s="6"/>
       <c r="AC34" s="6"/>
@@ -4430,49 +4432,49 @@
       <c r="AJ34" s="6"/>
     </row>
     <row r="35" spans="1:36" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="154" t="s">
+      <c r="A35" s="186" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="155"/>
-      <c r="C35" s="155"/>
+      <c r="B35" s="187"/>
+      <c r="C35" s="187"/>
       <c r="D35" s="156"/>
-      <c r="E35" s="98" t="s">
+      <c r="E35" s="155" t="s">
         <v>21</v>
       </c>
       <c r="F35" s="156"/>
-      <c r="G35" s="134" t="s">
+      <c r="G35" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="H35" s="98" t="s">
+      <c r="H35" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
+      <c r="I35" s="160"/>
+      <c r="J35" s="160"/>
+      <c r="K35" s="160"/>
+      <c r="L35" s="160"/>
+      <c r="M35" s="160"/>
       <c r="N35" s="17"/>
-      <c r="O35" s="114" t="s">
+      <c r="O35" s="150" t="s">
         <v>43</v>
       </c>
-      <c r="P35" s="112" t="s">
+      <c r="P35" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="Q35" s="112" t="s">
+      <c r="Q35" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="R35" s="134" t="s">
+      <c r="R35" s="159" t="s">
         <v>25</v>
       </c>
-      <c r="S35" s="98" t="s">
+      <c r="S35" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="T35" s="74"/>
-      <c r="U35" s="74"/>
-      <c r="V35" s="74"/>
-      <c r="W35" s="74"/>
-      <c r="X35" s="74"/>
-      <c r="Z35" s="230"/>
+      <c r="T35" s="160"/>
+      <c r="U35" s="160"/>
+      <c r="V35" s="160"/>
+      <c r="W35" s="160"/>
+      <c r="X35" s="160"/>
+      <c r="Z35" s="88"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
@@ -4485,13 +4487,13 @@
       <c r="AJ35" s="1"/>
     </row>
     <row r="36" spans="1:36" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="157"/>
-      <c r="B36" s="158"/>
-      <c r="C36" s="158"/>
-      <c r="D36" s="159"/>
-      <c r="E36" s="174"/>
-      <c r="F36" s="159"/>
-      <c r="G36" s="175"/>
+      <c r="A36" s="188"/>
+      <c r="B36" s="189"/>
+      <c r="C36" s="189"/>
+      <c r="D36" s="158"/>
+      <c r="E36" s="157"/>
+      <c r="F36" s="158"/>
+      <c r="G36" s="151"/>
       <c r="H36" s="34" t="s">
         <v>13</v>
       </c>
@@ -4513,10 +4515,10 @@
       <c r="N36" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="O36" s="175"/>
-      <c r="P36" s="196"/>
-      <c r="Q36" s="197"/>
-      <c r="R36" s="175"/>
+      <c r="O36" s="151"/>
+      <c r="P36" s="153"/>
+      <c r="Q36" s="154"/>
+      <c r="R36" s="151"/>
       <c r="S36" s="34" t="s">
         <v>13</v>
       </c>
@@ -4535,8 +4537,8 @@
       <c r="X36" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="Y36" s="229"/>
-      <c r="Z36" s="230"/>
+      <c r="Y36" s="87"/>
+      <c r="Z36" s="88"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
@@ -4549,24 +4551,24 @@
       <c r="AJ36" s="1"/>
     </row>
     <row r="37" spans="1:36" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="144"/>
-      <c r="B37" s="145"/>
-      <c r="C37" s="145"/>
-      <c r="D37" s="146"/>
-      <c r="E37" s="144"/>
-      <c r="F37" s="145"/>
-      <c r="G37" s="171"/>
-      <c r="H37" s="168"/>
-      <c r="I37" s="168"/>
-      <c r="J37" s="168"/>
-      <c r="K37" s="168"/>
-      <c r="L37" s="168"/>
-      <c r="M37" s="168"/>
-      <c r="N37" s="168"/>
-      <c r="O37" s="164"/>
-      <c r="P37" s="176"/>
-      <c r="Q37" s="176"/>
-      <c r="R37" s="136"/>
+      <c r="A37" s="176"/>
+      <c r="B37" s="177"/>
+      <c r="C37" s="177"/>
+      <c r="D37" s="178"/>
+      <c r="E37" s="176"/>
+      <c r="F37" s="177"/>
+      <c r="G37" s="134"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
+      <c r="N37" s="149"/>
+      <c r="O37" s="146"/>
+      <c r="P37" s="161"/>
+      <c r="Q37" s="161"/>
+      <c r="R37" s="164"/>
       <c r="S37" s="43">
         <v>2</v>
       </c>
@@ -4585,8 +4587,8 @@
       <c r="X37" s="47">
         <v>7</v>
       </c>
-      <c r="Y37" s="234"/>
-      <c r="Z37" s="230"/>
+      <c r="Y37" s="92"/>
+      <c r="Z37" s="88"/>
       <c r="AA37" s="38"/>
       <c r="AB37" s="39"/>
       <c r="AC37" s="39"/>
@@ -4599,24 +4601,24 @@
       <c r="AJ37" s="39"/>
     </row>
     <row r="38" spans="1:36" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="147"/>
-      <c r="B38" s="148"/>
-      <c r="C38" s="148"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="147"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="172"/>
-      <c r="H38" s="165"/>
-      <c r="I38" s="165"/>
-      <c r="J38" s="165"/>
-      <c r="K38" s="165"/>
-      <c r="L38" s="165"/>
-      <c r="M38" s="165"/>
-      <c r="N38" s="165"/>
-      <c r="O38" s="165"/>
-      <c r="P38" s="179"/>
-      <c r="Q38" s="177"/>
-      <c r="R38" s="137"/>
+      <c r="A38" s="179"/>
+      <c r="B38" s="180"/>
+      <c r="C38" s="180"/>
+      <c r="D38" s="181"/>
+      <c r="E38" s="179"/>
+      <c r="F38" s="182"/>
+      <c r="G38" s="135"/>
+      <c r="H38" s="147"/>
+      <c r="I38" s="147"/>
+      <c r="J38" s="147"/>
+      <c r="K38" s="147"/>
+      <c r="L38" s="147"/>
+      <c r="M38" s="147"/>
+      <c r="N38" s="147"/>
+      <c r="O38" s="147"/>
+      <c r="P38" s="167"/>
+      <c r="Q38" s="162"/>
+      <c r="R38" s="165"/>
       <c r="S38" s="58">
         <v>9</v>
       </c>
@@ -4635,8 +4637,8 @@
       <c r="X38" s="67">
         <v>14</v>
       </c>
-      <c r="Y38" s="234"/>
-      <c r="Z38" s="235"/>
+      <c r="Y38" s="92"/>
+      <c r="Z38" s="93"/>
       <c r="AA38" s="38"/>
       <c r="AB38" s="39"/>
       <c r="AC38" s="39"/>
@@ -4649,24 +4651,24 @@
       <c r="AJ38" s="39"/>
     </row>
     <row r="39" spans="1:36" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="147"/>
-      <c r="B39" s="148"/>
-      <c r="C39" s="148"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="172"/>
-      <c r="H39" s="165"/>
-      <c r="I39" s="165"/>
-      <c r="J39" s="165"/>
-      <c r="K39" s="165"/>
-      <c r="L39" s="165"/>
-      <c r="M39" s="165"/>
-      <c r="N39" s="165"/>
-      <c r="O39" s="165"/>
-      <c r="P39" s="179"/>
-      <c r="Q39" s="177"/>
-      <c r="R39" s="137"/>
+      <c r="A39" s="179"/>
+      <c r="B39" s="180"/>
+      <c r="C39" s="180"/>
+      <c r="D39" s="181"/>
+      <c r="E39" s="179"/>
+      <c r="F39" s="182"/>
+      <c r="G39" s="135"/>
+      <c r="H39" s="147"/>
+      <c r="I39" s="147"/>
+      <c r="J39" s="147"/>
+      <c r="K39" s="147"/>
+      <c r="L39" s="147"/>
+      <c r="M39" s="147"/>
+      <c r="N39" s="147"/>
+      <c r="O39" s="147"/>
+      <c r="P39" s="167"/>
+      <c r="Q39" s="162"/>
+      <c r="R39" s="165"/>
       <c r="S39" s="58">
         <v>16</v>
       </c>
@@ -4685,8 +4687,8 @@
       <c r="X39" s="67">
         <v>21</v>
       </c>
-      <c r="Y39" s="234"/>
-      <c r="Z39" s="230"/>
+      <c r="Y39" s="92"/>
+      <c r="Z39" s="88"/>
       <c r="AA39" s="38"/>
       <c r="AB39" s="39"/>
       <c r="AC39" s="39"/>
@@ -4699,24 +4701,24 @@
       <c r="AJ39" s="39"/>
     </row>
     <row r="40" spans="1:36" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="147"/>
-      <c r="B40" s="148"/>
-      <c r="C40" s="148"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="172"/>
-      <c r="H40" s="165"/>
-      <c r="I40" s="165"/>
-      <c r="J40" s="165"/>
-      <c r="K40" s="165"/>
-      <c r="L40" s="165"/>
-      <c r="M40" s="165"/>
-      <c r="N40" s="165"/>
-      <c r="O40" s="165"/>
-      <c r="P40" s="179"/>
-      <c r="Q40" s="177"/>
-      <c r="R40" s="137"/>
+      <c r="A40" s="179"/>
+      <c r="B40" s="180"/>
+      <c r="C40" s="180"/>
+      <c r="D40" s="181"/>
+      <c r="E40" s="179"/>
+      <c r="F40" s="182"/>
+      <c r="G40" s="135"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="147"/>
+      <c r="J40" s="147"/>
+      <c r="K40" s="147"/>
+      <c r="L40" s="147"/>
+      <c r="M40" s="147"/>
+      <c r="N40" s="147"/>
+      <c r="O40" s="147"/>
+      <c r="P40" s="167"/>
+      <c r="Q40" s="162"/>
+      <c r="R40" s="165"/>
       <c r="S40" s="58">
         <v>23</v>
       </c>
@@ -4735,8 +4737,8 @@
       <c r="X40" s="67">
         <v>29</v>
       </c>
-      <c r="Y40" s="234"/>
-      <c r="Z40" s="230"/>
+      <c r="Y40" s="92"/>
+      <c r="Z40" s="88"/>
       <c r="AA40" s="38"/>
       <c r="AB40" s="39"/>
       <c r="AC40" s="39"/>
@@ -4749,24 +4751,24 @@
       <c r="AJ40" s="39"/>
     </row>
     <row r="41" spans="1:36" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="147"/>
-      <c r="B41" s="150"/>
-      <c r="C41" s="150"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="173"/>
-      <c r="H41" s="166"/>
-      <c r="I41" s="166"/>
-      <c r="J41" s="166"/>
-      <c r="K41" s="166"/>
-      <c r="L41" s="166"/>
-      <c r="M41" s="166"/>
-      <c r="N41" s="166"/>
-      <c r="O41" s="166"/>
-      <c r="P41" s="180"/>
-      <c r="Q41" s="178"/>
-      <c r="R41" s="162"/>
+      <c r="A41" s="179"/>
+      <c r="B41" s="182"/>
+      <c r="C41" s="182"/>
+      <c r="D41" s="181"/>
+      <c r="E41" s="179"/>
+      <c r="F41" s="182"/>
+      <c r="G41" s="136"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+      <c r="N41" s="148"/>
+      <c r="O41" s="148"/>
+      <c r="P41" s="168"/>
+      <c r="Q41" s="163"/>
+      <c r="R41" s="166"/>
       <c r="S41" s="29">
         <v>30</v>
       </c>
@@ -4777,8 +4779,8 @@
       <c r="V41" s="31"/>
       <c r="W41" s="31"/>
       <c r="X41" s="68"/>
-      <c r="Y41" s="234"/>
-      <c r="Z41" s="230"/>
+      <c r="Y41" s="92"/>
+      <c r="Z41" s="88"/>
       <c r="AA41" s="38"/>
       <c r="AB41" s="39"/>
       <c r="AC41" s="39"/>
@@ -4791,24 +4793,24 @@
       <c r="AJ41" s="39"/>
     </row>
     <row r="42" spans="1:36" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="151"/>
-      <c r="B42" s="152"/>
-      <c r="C42" s="152"/>
-      <c r="D42" s="152"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="170"/>
-      <c r="G42" s="171"/>
-      <c r="H42" s="181"/>
-      <c r="I42" s="168"/>
-      <c r="J42" s="168"/>
-      <c r="K42" s="168"/>
-      <c r="L42" s="168"/>
-      <c r="M42" s="168"/>
-      <c r="N42" s="168"/>
-      <c r="O42" s="164"/>
-      <c r="P42" s="167"/>
-      <c r="Q42" s="163"/>
-      <c r="R42" s="136"/>
+      <c r="A42" s="183"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="183"/>
+      <c r="F42" s="198"/>
+      <c r="G42" s="134"/>
+      <c r="H42" s="169"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
+      <c r="N42" s="149"/>
+      <c r="O42" s="146"/>
+      <c r="P42" s="193"/>
+      <c r="Q42" s="192"/>
+      <c r="R42" s="164"/>
       <c r="S42" s="43">
         <v>2</v>
       </c>
@@ -4827,8 +4829,8 @@
       <c r="X42" s="47">
         <v>7</v>
       </c>
-      <c r="Y42" s="234"/>
-      <c r="Z42" s="230"/>
+      <c r="Y42" s="92"/>
+      <c r="Z42" s="88"/>
       <c r="AA42" s="38"/>
       <c r="AB42" s="39"/>
       <c r="AC42" s="39"/>
@@ -4841,24 +4843,24 @@
       <c r="AJ42" s="39"/>
     </row>
     <row r="43" spans="1:36" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="152"/>
-      <c r="B43" s="153"/>
-      <c r="C43" s="153"/>
-      <c r="D43" s="152"/>
-      <c r="E43" s="152"/>
-      <c r="F43" s="170"/>
-      <c r="G43" s="172"/>
-      <c r="H43" s="182"/>
-      <c r="I43" s="165"/>
-      <c r="J43" s="165"/>
-      <c r="K43" s="165"/>
-      <c r="L43" s="165"/>
-      <c r="M43" s="165"/>
-      <c r="N43" s="165"/>
-      <c r="O43" s="165"/>
-      <c r="P43" s="165"/>
-      <c r="Q43" s="137"/>
-      <c r="R43" s="137"/>
+      <c r="A43" s="184"/>
+      <c r="B43" s="185"/>
+      <c r="C43" s="185"/>
+      <c r="D43" s="184"/>
+      <c r="E43" s="184"/>
+      <c r="F43" s="198"/>
+      <c r="G43" s="135"/>
+      <c r="H43" s="170"/>
+      <c r="I43" s="147"/>
+      <c r="J43" s="147"/>
+      <c r="K43" s="147"/>
+      <c r="L43" s="147"/>
+      <c r="M43" s="147"/>
+      <c r="N43" s="147"/>
+      <c r="O43" s="147"/>
+      <c r="P43" s="147"/>
+      <c r="Q43" s="165"/>
+      <c r="R43" s="165"/>
       <c r="S43" s="41">
         <v>9</v>
       </c>
@@ -4877,8 +4879,8 @@
       <c r="X43" s="69">
         <v>14</v>
       </c>
-      <c r="Y43" s="234"/>
-      <c r="Z43" s="235"/>
+      <c r="Y43" s="92"/>
+      <c r="Z43" s="93"/>
       <c r="AA43" s="38"/>
       <c r="AB43" s="39"/>
       <c r="AC43" s="39"/>
@@ -4891,24 +4893,24 @@
       <c r="AJ43" s="39"/>
     </row>
     <row r="44" spans="1:36" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="152"/>
-      <c r="B44" s="153"/>
-      <c r="C44" s="153"/>
-      <c r="D44" s="152"/>
-      <c r="E44" s="152"/>
-      <c r="F44" s="170"/>
-      <c r="G44" s="172"/>
-      <c r="H44" s="182"/>
-      <c r="I44" s="165"/>
-      <c r="J44" s="165"/>
-      <c r="K44" s="165"/>
-      <c r="L44" s="165"/>
-      <c r="M44" s="165"/>
-      <c r="N44" s="165"/>
-      <c r="O44" s="165"/>
-      <c r="P44" s="165"/>
-      <c r="Q44" s="137"/>
-      <c r="R44" s="137"/>
+      <c r="A44" s="184"/>
+      <c r="B44" s="185"/>
+      <c r="C44" s="185"/>
+      <c r="D44" s="184"/>
+      <c r="E44" s="184"/>
+      <c r="F44" s="198"/>
+      <c r="G44" s="135"/>
+      <c r="H44" s="170"/>
+      <c r="I44" s="147"/>
+      <c r="J44" s="147"/>
+      <c r="K44" s="147"/>
+      <c r="L44" s="147"/>
+      <c r="M44" s="147"/>
+      <c r="N44" s="147"/>
+      <c r="O44" s="147"/>
+      <c r="P44" s="147"/>
+      <c r="Q44" s="165"/>
+      <c r="R44" s="165"/>
       <c r="S44" s="41">
         <v>16</v>
       </c>
@@ -4927,8 +4929,8 @@
       <c r="X44" s="69">
         <v>21</v>
       </c>
-      <c r="Y44" s="234"/>
-      <c r="Z44" s="230"/>
+      <c r="Y44" s="92"/>
+      <c r="Z44" s="88"/>
       <c r="AA44" s="38"/>
       <c r="AB44" s="39"/>
       <c r="AC44" s="39"/>
@@ -4941,24 +4943,24 @@
       <c r="AJ44" s="39"/>
     </row>
     <row r="45" spans="1:36" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="152"/>
-      <c r="B45" s="153"/>
-      <c r="C45" s="153"/>
-      <c r="D45" s="152"/>
-      <c r="E45" s="152"/>
-      <c r="F45" s="170"/>
-      <c r="G45" s="172"/>
-      <c r="H45" s="182"/>
-      <c r="I45" s="165"/>
-      <c r="J45" s="165"/>
-      <c r="K45" s="165"/>
-      <c r="L45" s="165"/>
-      <c r="M45" s="165"/>
-      <c r="N45" s="165"/>
-      <c r="O45" s="165"/>
-      <c r="P45" s="165"/>
-      <c r="Q45" s="137"/>
-      <c r="R45" s="137"/>
+      <c r="A45" s="184"/>
+      <c r="B45" s="185"/>
+      <c r="C45" s="185"/>
+      <c r="D45" s="184"/>
+      <c r="E45" s="184"/>
+      <c r="F45" s="198"/>
+      <c r="G45" s="135"/>
+      <c r="H45" s="170"/>
+      <c r="I45" s="147"/>
+      <c r="J45" s="147"/>
+      <c r="K45" s="147"/>
+      <c r="L45" s="147"/>
+      <c r="M45" s="147"/>
+      <c r="N45" s="147"/>
+      <c r="O45" s="147"/>
+      <c r="P45" s="147"/>
+      <c r="Q45" s="165"/>
+      <c r="R45" s="165"/>
       <c r="S45" s="27">
         <v>23</v>
       </c>
@@ -4977,8 +4979,8 @@
       <c r="X45" s="69">
         <v>29</v>
       </c>
-      <c r="Y45" s="234"/>
-      <c r="Z45" s="230"/>
+      <c r="Y45" s="92"/>
+      <c r="Z45" s="88"/>
       <c r="AA45" s="38"/>
       <c r="AB45" s="39"/>
       <c r="AC45" s="39"/>
@@ -4991,24 +4993,24 @@
       <c r="AJ45" s="39"/>
     </row>
     <row r="46" spans="1:36" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="152"/>
-      <c r="B46" s="152"/>
-      <c r="C46" s="152"/>
-      <c r="D46" s="152"/>
-      <c r="E46" s="152"/>
-      <c r="F46" s="170"/>
-      <c r="G46" s="173"/>
-      <c r="H46" s="183"/>
-      <c r="I46" s="166"/>
-      <c r="J46" s="166"/>
-      <c r="K46" s="166"/>
-      <c r="L46" s="166"/>
-      <c r="M46" s="166"/>
-      <c r="N46" s="166"/>
-      <c r="O46" s="166"/>
-      <c r="P46" s="166"/>
-      <c r="Q46" s="162"/>
-      <c r="R46" s="162"/>
+      <c r="A46" s="184"/>
+      <c r="B46" s="184"/>
+      <c r="C46" s="184"/>
+      <c r="D46" s="184"/>
+      <c r="E46" s="184"/>
+      <c r="F46" s="198"/>
+      <c r="G46" s="136"/>
+      <c r="H46" s="171"/>
+      <c r="I46" s="148"/>
+      <c r="J46" s="148"/>
+      <c r="K46" s="148"/>
+      <c r="L46" s="148"/>
+      <c r="M46" s="148"/>
+      <c r="N46" s="148"/>
+      <c r="O46" s="148"/>
+      <c r="P46" s="148"/>
+      <c r="Q46" s="166"/>
+      <c r="R46" s="166"/>
       <c r="S46" s="29">
         <v>30</v>
       </c>
@@ -5019,8 +5021,8 @@
       <c r="V46" s="31"/>
       <c r="W46" s="31"/>
       <c r="X46" s="68"/>
-      <c r="Y46" s="236"/>
-      <c r="Z46" s="237"/>
+      <c r="Y46" s="94"/>
+      <c r="Z46" s="95"/>
       <c r="AA46" s="38"/>
       <c r="AB46" s="39"/>
       <c r="AC46" s="39"/>
@@ -5033,31 +5035,31 @@
       <c r="AJ46" s="39"/>
     </row>
     <row r="47" spans="1:36" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="140"/>
-      <c r="B47" s="140"/>
-      <c r="C47" s="140"/>
-      <c r="D47" s="140"/>
-      <c r="E47" s="140"/>
-      <c r="F47" s="140"/>
-      <c r="G47" s="140"/>
-      <c r="H47" s="141" t="s">
+      <c r="A47" s="172"/>
+      <c r="B47" s="172"/>
+      <c r="C47" s="172"/>
+      <c r="D47" s="172"/>
+      <c r="E47" s="172"/>
+      <c r="F47" s="172"/>
+      <c r="G47" s="172"/>
+      <c r="H47" s="173" t="s">
         <v>35</v>
       </c>
-      <c r="I47" s="142"/>
-      <c r="J47" s="142"/>
-      <c r="K47" s="142"/>
-      <c r="L47" s="142"/>
-      <c r="M47" s="142"/>
-      <c r="N47" s="142"/>
-      <c r="O47" s="142"/>
-      <c r="P47" s="143"/>
+      <c r="I47" s="174"/>
+      <c r="J47" s="174"/>
+      <c r="K47" s="174"/>
+      <c r="L47" s="174"/>
+      <c r="M47" s="174"/>
+      <c r="N47" s="174"/>
+      <c r="O47" s="174"/>
+      <c r="P47" s="175"/>
       <c r="R47" s="45">
         <f>Q33+R37+R42</f>
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="X47" s="32"/>
-      <c r="Y47" s="238"/>
-      <c r="Z47" s="239"/>
+      <c r="Y47" s="96"/>
+      <c r="Z47" s="97"/>
       <c r="AA47" s="5"/>
       <c r="AB47" s="6"/>
       <c r="AC47" s="6"/>
@@ -26170,16 +26172,106 @@
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="Y10:AA11"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="J23:J27"/>
-    <mergeCell ref="I23:I27"/>
+    <mergeCell ref="I28:I32"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="N28:N32"/>
+    <mergeCell ref="O28:O32"/>
+    <mergeCell ref="P28:P32"/>
+    <mergeCell ref="Q28:Q32"/>
+    <mergeCell ref="R28:R32"/>
+    <mergeCell ref="P18:P22"/>
+    <mergeCell ref="Q18:Q22"/>
+    <mergeCell ref="R18:R22"/>
+    <mergeCell ref="P23:P27"/>
+    <mergeCell ref="Q23:Q27"/>
+    <mergeCell ref="R23:R27"/>
+    <mergeCell ref="J28:J32"/>
+    <mergeCell ref="K28:K32"/>
+    <mergeCell ref="L28:L32"/>
+    <mergeCell ref="M28:M32"/>
+    <mergeCell ref="J13:J17"/>
+    <mergeCell ref="N18:N22"/>
+    <mergeCell ref="O18:O22"/>
+    <mergeCell ref="K23:K27"/>
+    <mergeCell ref="L23:L27"/>
+    <mergeCell ref="M23:M27"/>
+    <mergeCell ref="N23:N27"/>
+    <mergeCell ref="O23:O27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="F28:F32"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="H28:H32"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="F18:F22"/>
+    <mergeCell ref="G18:G22"/>
+    <mergeCell ref="H18:H22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="R33:W33"/>
+    <mergeCell ref="H33:O33"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="O8:W8"/>
+    <mergeCell ref="W4:X6"/>
+    <mergeCell ref="G7:X7"/>
+    <mergeCell ref="A9:X9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="I13:I17"/>
+    <mergeCell ref="P13:P17"/>
+    <mergeCell ref="Q13:Q17"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="R13:R17"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G13:G17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="S35:X35"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="H47:P47"/>
+    <mergeCell ref="A37:D41"/>
+    <mergeCell ref="E37:F41"/>
+    <mergeCell ref="A42:D46"/>
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="D2:X2"/>
+    <mergeCell ref="R42:R46"/>
+    <mergeCell ref="Q42:Q46"/>
+    <mergeCell ref="O42:O46"/>
+    <mergeCell ref="P42:P46"/>
+    <mergeCell ref="M42:M46"/>
+    <mergeCell ref="N42:N46"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="S10:X11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E42:F46"/>
+    <mergeCell ref="G42:G46"/>
+    <mergeCell ref="K42:K46"/>
+    <mergeCell ref="I42:I46"/>
+    <mergeCell ref="J42:J46"/>
+    <mergeCell ref="L42:L46"/>
+    <mergeCell ref="E35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="Q37:Q41"/>
+    <mergeCell ref="R37:R41"/>
+    <mergeCell ref="L37:L41"/>
+    <mergeCell ref="P37:P41"/>
+    <mergeCell ref="H42:H46"/>
     <mergeCell ref="A34:W34"/>
     <mergeCell ref="G37:G41"/>
     <mergeCell ref="B2:C4"/>
@@ -26204,119 +26296,29 @@
     <mergeCell ref="K37:K41"/>
     <mergeCell ref="J37:J41"/>
     <mergeCell ref="M37:M41"/>
-    <mergeCell ref="L42:L46"/>
-    <mergeCell ref="E35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="Q37:Q41"/>
-    <mergeCell ref="R37:R41"/>
-    <mergeCell ref="L37:L41"/>
-    <mergeCell ref="P37:P41"/>
-    <mergeCell ref="H42:H46"/>
-    <mergeCell ref="S35:X35"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="H47:P47"/>
-    <mergeCell ref="A37:D41"/>
-    <mergeCell ref="E37:F41"/>
-    <mergeCell ref="A42:D46"/>
-    <mergeCell ref="A35:D36"/>
-    <mergeCell ref="D2:X2"/>
-    <mergeCell ref="R42:R46"/>
-    <mergeCell ref="Q42:Q46"/>
-    <mergeCell ref="O42:O46"/>
-    <mergeCell ref="P42:P46"/>
-    <mergeCell ref="M42:M46"/>
-    <mergeCell ref="N42:N46"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="S10:X11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E42:F46"/>
-    <mergeCell ref="G42:G46"/>
-    <mergeCell ref="K42:K46"/>
-    <mergeCell ref="I42:I46"/>
-    <mergeCell ref="J42:J46"/>
-    <mergeCell ref="R33:W33"/>
-    <mergeCell ref="H33:O33"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="O8:W8"/>
-    <mergeCell ref="W4:X6"/>
-    <mergeCell ref="G7:X7"/>
-    <mergeCell ref="A9:X9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="I13:I17"/>
-    <mergeCell ref="P13:P17"/>
-    <mergeCell ref="Q13:Q17"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="R13:R17"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G13:G17"/>
-    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="Y10:AA11"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="I23:I27"/>
     <mergeCell ref="D13:D17"/>
     <mergeCell ref="H10:M10"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="F28:F32"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="H28:H32"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="E18:E22"/>
-    <mergeCell ref="F18:F22"/>
-    <mergeCell ref="G18:G22"/>
-    <mergeCell ref="H18:H22"/>
     <mergeCell ref="I18:I22"/>
     <mergeCell ref="J18:J22"/>
     <mergeCell ref="K18:K22"/>
     <mergeCell ref="L18:L22"/>
     <mergeCell ref="M18:M22"/>
-    <mergeCell ref="A23:A27"/>
     <mergeCell ref="H13:H17"/>
     <mergeCell ref="O13:O17"/>
     <mergeCell ref="N13:N17"/>
     <mergeCell ref="M13:M17"/>
     <mergeCell ref="K13:K17"/>
     <mergeCell ref="L13:L17"/>
-    <mergeCell ref="J28:J32"/>
-    <mergeCell ref="K28:K32"/>
-    <mergeCell ref="L28:L32"/>
-    <mergeCell ref="M28:M32"/>
-    <mergeCell ref="J13:J17"/>
-    <mergeCell ref="N18:N22"/>
-    <mergeCell ref="O18:O22"/>
-    <mergeCell ref="K23:K27"/>
-    <mergeCell ref="L23:L27"/>
-    <mergeCell ref="M23:M27"/>
-    <mergeCell ref="N23:N27"/>
-    <mergeCell ref="O23:O27"/>
-    <mergeCell ref="I28:I32"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="N28:N32"/>
-    <mergeCell ref="O28:O32"/>
-    <mergeCell ref="P28:P32"/>
-    <mergeCell ref="Q28:Q32"/>
-    <mergeCell ref="R28:R32"/>
-    <mergeCell ref="P18:P22"/>
-    <mergeCell ref="Q18:Q22"/>
-    <mergeCell ref="R18:R22"/>
-    <mergeCell ref="P23:P27"/>
-    <mergeCell ref="Q23:Q27"/>
-    <mergeCell ref="R23:R27"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O37:O46">
